--- a/data/924/NBS/Growth Rate of Industrial Value-added.xlsx
+++ b/data/924/NBS/Growth Rate of Industrial Value-added.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RC3"/>
+  <dimension ref="A1:RD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,2350 +374,2355 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar 2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Feb 2022</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Jan 2022</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Dec 2021</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov 2021</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Oct 2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Sep 2021</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Aug 2021</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Jul 2021</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Jun 2021</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>May 2021</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Apr 2021</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Mar 2021</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Feb 2021</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Jan 2021</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Dec 2020</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Nov 2020</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Oct 2020</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Sep 2020</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Aug 2020</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Jul 2020</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>June 2020</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>May 2020</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Apr 2020</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Mar 2020</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Feb 2020</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Jan 2020</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Dec 2019</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Nov 2019</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Oct 2019</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Sep 2019</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Aug 2019</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Jul 2019</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Jun 2019</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>May 2019</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Apr 2019</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Mar 2019</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Feb 2019</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Jan 2019</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Dec 2018</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Nov 2018</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Sep 2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Aug 2018</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Jul 2018</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Jun 2018</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>May 2018</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Apr 2018</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Mar 2018</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Feb 2018</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2018</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Dec 2017</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Nov 2017</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Oct 2017</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Sep 2017</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Aug 2017</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Jul 2017</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Jun 2017</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>May 2017</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Apr 2017</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2017</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Feb 2017</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Jan 2017</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Dec 2016</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Nov 2016</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Oct 2016</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Sep 2016</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 2016</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Jul 2016</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>Jun 2016</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>May 2016</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Apr 2016</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Mar 2016</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>Feb 2016</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Jan 2016</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>Dec 2015</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2015</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Oct 2015</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Sep 2015</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Aug 2015</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Jul 2015</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>Jun 2015</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>May 2015</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Apr 2015</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>Mar 2015</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>Feb 2015</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2015</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>Dec 2014</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>Nov 2014</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>Oct 2014</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>Sep 2014</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>Aug 2014</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>Jul 2014</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 2014</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>May 2014</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>Apr 2014</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>Mar 2014</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>Feb 2014</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>Jan 2014</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>Dec 2013</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>Nov 2013</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>Oct 2013</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2013</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>Aug 2013</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>Jul 2013</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>Jun 2013</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>May 2013</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>Apr 2013</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>Mar 2013</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>Feb 2013</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>Jan 2013</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>Dec 2012</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2012</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>Oct2012</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>Sep 2012</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>Aug 2012</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>Jul 2012</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>Jun2012</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>May 2012</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 2012</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>Mar 2012</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>Feb 2012</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>Jan 2012</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>Dec 2011</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>Nov 2011</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>Oct 2011</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>Sep 2011</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>Aug 2011</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 2011</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>Jun 2011</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>May 2011</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>Apr 2011</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>Mar 2011</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>Feb 2011</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>Jan 2011</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>Dec 2010</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>Nov 2010</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>Oct 2010</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2010</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>Aug 2010</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>Jul 2010</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>Jun 2010</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>May 2010</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>Apr 2010</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>Mar 2010</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 2010</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>Jan 2010</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>Dec 2009</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>Nov 2009</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>Oct 2009</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>Sep 2009</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>Aug 2009</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>Jul 2009</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>Jun 2009</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>May 2009</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>Apr 2009</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>Mar 2009</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>Feb 2009</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>Jan 2009</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>Dec 2008</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>Nov 2008</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>Oct 2008</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>Sep 2008</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>Aug 2008</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>Jul 2008</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>Jun 2008</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>May 2008</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>Apr 2008</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>Mar 2008</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>Feb 2008</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>Jan 2008</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>Dec 2007</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>Nov 2007</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>Oct 2007</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>Sep 2007</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>Aug 2007</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>Jul 2007</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>Jun 2007</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>May 2007</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>Apr 2007</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2007</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>Feb 2007</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>Jan 2007</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>Dec 2006</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>Nov 2006</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>Oct 2006</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>Sep 2006</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>Aug 2006</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>Jul 2006</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>Jun 2006</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>May 2006</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>Apr 2006</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>Mar 2006</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>Feb 2006</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>Jan 2006</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>Dec 2005</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>Nov 2005</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 2005</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>Sep 2005</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>Aug 2005</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>Jul 2005</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>Jun 2005</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>May 2005</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>Apr 2005</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>Mar 2005</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>Feb 2005</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2005</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>Dec 2004</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>Nov 2004</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>Oct 2004</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>Sep 2004</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>Aug 2004</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>Jul 2004</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>Jun 2004</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>May 2004</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>Apr 2004</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2004</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>Feb 2004</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>Jan 2004</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>Dec 2003</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>Nov 2003</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>Oct 2003</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>Sep 2003</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 2003</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>Jul 2003</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>Jun 2003</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>May 2003</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>Apr 2003</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>Mar 2003</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>Feb 2003</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>Jan 2003</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>Dec 2002</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2002</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>Oct 2002</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>Sep 2002</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>Aug 2002</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>Jul 2002</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>Jun 2002</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>May 2002</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>Apr 2002</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>Mar 2002</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>Feb 2002</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2002</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>Dec 2001</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>Nov 2001</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>Oct 2001</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>Sep 2001</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>Aug 2001</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>Jul 2001</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 2001</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>May 2001</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>Apr 2001</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>Mar 2001</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>Feb 2001</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>Jan 2001</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>Dec 2000</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>Nov 2000</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>Oct 2000</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2000</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>Aug 2000</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>Jul 2000</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>Jun 2000</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>May 2000</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>Apr 2000</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>Mar 2000</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>Feb 2000</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>Jan 2000</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>Dec 1999</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1999</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>Oct 1999</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>Sep 1999</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>Aug 1999</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>Jul 1999</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>Jun 1999</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>May 1999</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 1999</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>Mar 1999</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>Feb 1999</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>Jan 1999</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>Dec 1998</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>Nov 1998</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>Oct 1998</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>Sep 1998</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>Aug 1998</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1998</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>Jun 1998</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>May 1998</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>Apr 1998</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>Mar 1998</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>Feb 1998</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>Jan 1998</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>Dec 1997</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>Nov 1997</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>Oct 1997</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1997</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>Aug 1997</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>Jul 1997</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>Jun 1997</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>May 1997</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>Apr 1997</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>Mar 1997</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 1997</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>Jan 1997</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>Dec 1996</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>Nov 1996</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>Oct 1996</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>Sep 1996</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>Aug 1996</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>Jul 1996</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>Jun 1996</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>May 1996</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>Apr 1996</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>Mar 1996</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>Feb 1996</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>Jan 1996</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>Dec 1995</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>Nov 1995</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>Oct 1995</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>Sep 1995</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>Aug 1995</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1995</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>Jun 1995</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>May 1995</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>Apr 1995</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>Mar 1995</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>Feb 1995</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>Jan 1995</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>Dec 1994</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>Nov 1994</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>Oct 1994</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>Sep 1994</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>Aug 1994</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>Jul 1994</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>Jun 1994</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>May 1994</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>Apr 1994</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>Mar 1994</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>Feb 1994</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>Jan 1994</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>Dec 1993</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>Nov 1993</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>Oct 1993</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
         <is>
           <t>Sep 1993</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>Aug 1993</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>Jul 1993</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>Jun 1993</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>May 1993</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
         <is>
           <t>Apr 1993</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>Mar 1993</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>Feb 1993</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>Jan 1993</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
         <is>
           <t>Dec 1992</t>
         </is>
       </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>Nov 1992</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 1992</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>Sep 1992</t>
         </is>
       </c>
-      <c r="MR1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>Aug 1992</t>
         </is>
       </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>Jul 1992</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>Jun 1992</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>May 1992</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>Apr 1992</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>Mar 1992</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>Feb 1992</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 1992</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>Dec 1991</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>Nov 1991</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>Oct 1991</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
+      <c r="ND1" s="1" t="inlineStr">
         <is>
           <t>Sep 1991</t>
         </is>
       </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>Aug 1991</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>Jul 1991</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>Jun 1991</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="NH1" s="1" t="inlineStr">
         <is>
           <t>May 1991</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>Apr 1991</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 1991</t>
         </is>
       </c>
-      <c r="NJ1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>Feb 1991</t>
         </is>
       </c>
-      <c r="NK1" s="1" t="inlineStr">
+      <c r="NL1" s="1" t="inlineStr">
         <is>
           <t>Jan 1991</t>
         </is>
       </c>
-      <c r="NL1" s="1" t="inlineStr">
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>Dec 1990</t>
         </is>
       </c>
-      <c r="NM1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>Nov 1990</t>
         </is>
       </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>Oct 1990</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>Sep 1990</t>
         </is>
       </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 1990</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
+      <c r="NR1" s="1" t="inlineStr">
         <is>
           <t>Jul 1990</t>
         </is>
       </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>Jun 1990</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>May 1990</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="NU1" s="1" t="inlineStr">
         <is>
           <t>Apr 1990</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>Mar 1990</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>Feb 1990</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>Jan 1990</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>Dec 1989</t>
         </is>
       </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1989</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>Oct 1989</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>Sep 1989</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>Aug 1989</t>
         </is>
       </c>
-      <c r="OC1" s="1" t="inlineStr">
+      <c r="OD1" s="1" t="inlineStr">
         <is>
           <t>Jul 1989</t>
         </is>
       </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="OE1" s="1" t="inlineStr">
         <is>
           <t>Jun 1989</t>
         </is>
       </c>
-      <c r="OE1" s="1" t="inlineStr">
+      <c r="OF1" s="1" t="inlineStr">
         <is>
           <t>May 1989</t>
         </is>
       </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OG1" s="1" t="inlineStr">
         <is>
           <t>Apr 1989</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
+      <c r="OH1" s="1" t="inlineStr">
         <is>
           <t>Mar 1989</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
         <is>
           <t>Feb 1989</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
+      <c r="OJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 1989</t>
         </is>
       </c>
-      <c r="OJ1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
         <is>
           <t>Dec 1988</t>
         </is>
       </c>
-      <c r="OK1" s="1" t="inlineStr">
+      <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>Nov 1988</t>
         </is>
       </c>
-      <c r="OL1" s="1" t="inlineStr">
+      <c r="OM1" s="1" t="inlineStr">
         <is>
           <t>Oct 1988</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
+      <c r="ON1" s="1" t="inlineStr">
         <is>
           <t>Sep 1988</t>
         </is>
       </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="OO1" s="1" t="inlineStr">
         <is>
           <t>Aug 1988</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
+      <c r="OP1" s="1" t="inlineStr">
         <is>
           <t>Jul 1988</t>
         </is>
       </c>
-      <c r="OP1" s="1" t="inlineStr">
+      <c r="OQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 1988</t>
         </is>
       </c>
-      <c r="OQ1" s="1" t="inlineStr">
+      <c r="OR1" s="1" t="inlineStr">
         <is>
           <t>May 1988</t>
         </is>
       </c>
-      <c r="OR1" s="1" t="inlineStr">
+      <c r="OS1" s="1" t="inlineStr">
         <is>
           <t>Apr 1988</t>
         </is>
       </c>
-      <c r="OS1" s="1" t="inlineStr">
+      <c r="OT1" s="1" t="inlineStr">
         <is>
           <t>Mar 1988</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
+      <c r="OU1" s="1" t="inlineStr">
         <is>
           <t>Feb 1988</t>
         </is>
       </c>
-      <c r="OU1" s="1" t="inlineStr">
+      <c r="OV1" s="1" t="inlineStr">
         <is>
           <t>Jan 1988</t>
         </is>
       </c>
-      <c r="OV1" s="1" t="inlineStr">
+      <c r="OW1" s="1" t="inlineStr">
         <is>
           <t>Dec 1987</t>
         </is>
       </c>
-      <c r="OW1" s="1" t="inlineStr">
+      <c r="OX1" s="1" t="inlineStr">
         <is>
           <t>Nov 1987</t>
         </is>
       </c>
-      <c r="OX1" s="1" t="inlineStr">
+      <c r="OY1" s="1" t="inlineStr">
         <is>
           <t>Oct 1987</t>
         </is>
       </c>
-      <c r="OY1" s="1" t="inlineStr">
+      <c r="OZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1987</t>
         </is>
       </c>
-      <c r="OZ1" s="1" t="inlineStr">
+      <c r="PA1" s="1" t="inlineStr">
         <is>
           <t>Aug 1987</t>
         </is>
       </c>
-      <c r="PA1" s="1" t="inlineStr">
+      <c r="PB1" s="1" t="inlineStr">
         <is>
           <t>Jul 1987</t>
         </is>
       </c>
-      <c r="PB1" s="1" t="inlineStr">
+      <c r="PC1" s="1" t="inlineStr">
         <is>
           <t>Jun 1987</t>
         </is>
       </c>
-      <c r="PC1" s="1" t="inlineStr">
+      <c r="PD1" s="1" t="inlineStr">
         <is>
           <t>May 1987</t>
         </is>
       </c>
-      <c r="PD1" s="1" t="inlineStr">
+      <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>Apr 1987</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
         <is>
           <t>Mar 1987</t>
         </is>
       </c>
-      <c r="PF1" s="1" t="inlineStr">
+      <c r="PG1" s="1" t="inlineStr">
         <is>
           <t>Feb 1987</t>
         </is>
       </c>
-      <c r="PG1" s="1" t="inlineStr">
+      <c r="PH1" s="1" t="inlineStr">
         <is>
           <t>Jan 1987</t>
         </is>
       </c>
-      <c r="PH1" s="1" t="inlineStr">
+      <c r="PI1" s="1" t="inlineStr">
         <is>
           <t>Dec 1986</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
+      <c r="PJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1986</t>
         </is>
       </c>
-      <c r="PJ1" s="1" t="inlineStr">
+      <c r="PK1" s="1" t="inlineStr">
         <is>
           <t>Oct 1986</t>
         </is>
       </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="PL1" s="1" t="inlineStr">
         <is>
           <t>Sep 1986</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
+      <c r="PM1" s="1" t="inlineStr">
         <is>
           <t>Aug 1986</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="PN1" s="1" t="inlineStr">
         <is>
           <t>Jul 1986</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
+      <c r="PO1" s="1" t="inlineStr">
         <is>
           <t>Jun 1986</t>
         </is>
       </c>
-      <c r="PO1" s="1" t="inlineStr">
+      <c r="PP1" s="1" t="inlineStr">
         <is>
           <t>May 1986</t>
         </is>
       </c>
-      <c r="PP1" s="1" t="inlineStr">
+      <c r="PQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 1986</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
+      <c r="PR1" s="1" t="inlineStr">
         <is>
           <t>Mar 1986</t>
         </is>
       </c>
-      <c r="PR1" s="1" t="inlineStr">
+      <c r="PS1" s="1" t="inlineStr">
         <is>
           <t>Feb 1986</t>
         </is>
       </c>
-      <c r="PS1" s="1" t="inlineStr">
+      <c r="PT1" s="1" t="inlineStr">
         <is>
           <t>Jan 1986</t>
         </is>
       </c>
-      <c r="PT1" s="1" t="inlineStr">
+      <c r="PU1" s="1" t="inlineStr">
         <is>
           <t>Dec 1985</t>
         </is>
       </c>
-      <c r="PU1" s="1" t="inlineStr">
+      <c r="PV1" s="1" t="inlineStr">
         <is>
           <t>Nov 1985</t>
         </is>
       </c>
-      <c r="PV1" s="1" t="inlineStr">
+      <c r="PW1" s="1" t="inlineStr">
         <is>
           <t>Oct 1985</t>
         </is>
       </c>
-      <c r="PW1" s="1" t="inlineStr">
+      <c r="PX1" s="1" t="inlineStr">
         <is>
           <t>Sep 1985</t>
         </is>
       </c>
-      <c r="PX1" s="1" t="inlineStr">
+      <c r="PY1" s="1" t="inlineStr">
         <is>
           <t>Aug 1985</t>
         </is>
       </c>
-      <c r="PY1" s="1" t="inlineStr">
+      <c r="PZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1985</t>
         </is>
       </c>
-      <c r="PZ1" s="1" t="inlineStr">
+      <c r="QA1" s="1" t="inlineStr">
         <is>
           <t>Jun 1985</t>
         </is>
       </c>
-      <c r="QA1" s="1" t="inlineStr">
+      <c r="QB1" s="1" t="inlineStr">
         <is>
           <t>May 1985</t>
         </is>
       </c>
-      <c r="QB1" s="1" t="inlineStr">
+      <c r="QC1" s="1" t="inlineStr">
         <is>
           <t>Apr 1985</t>
         </is>
       </c>
-      <c r="QC1" s="1" t="inlineStr">
+      <c r="QD1" s="1" t="inlineStr">
         <is>
           <t>Mar 1985</t>
         </is>
       </c>
-      <c r="QD1" s="1" t="inlineStr">
+      <c r="QE1" s="1" t="inlineStr">
         <is>
           <t>Feb 1985</t>
         </is>
       </c>
-      <c r="QE1" s="1" t="inlineStr">
+      <c r="QF1" s="1" t="inlineStr">
         <is>
           <t>Jan 1985</t>
         </is>
       </c>
-      <c r="QF1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
         <is>
           <t>Dec 1984</t>
         </is>
       </c>
-      <c r="QG1" s="1" t="inlineStr">
+      <c r="QH1" s="1" t="inlineStr">
         <is>
           <t>Nov 1984</t>
         </is>
       </c>
-      <c r="QH1" s="1" t="inlineStr">
+      <c r="QI1" s="1" t="inlineStr">
         <is>
           <t>Oct 1984</t>
         </is>
       </c>
-      <c r="QI1" s="1" t="inlineStr">
+      <c r="QJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1984</t>
         </is>
       </c>
-      <c r="QJ1" s="1" t="inlineStr">
+      <c r="QK1" s="1" t="inlineStr">
         <is>
           <t>Aug 1984</t>
         </is>
       </c>
-      <c r="QK1" s="1" t="inlineStr">
+      <c r="QL1" s="1" t="inlineStr">
         <is>
           <t>Jul 1984</t>
         </is>
       </c>
-      <c r="QL1" s="1" t="inlineStr">
+      <c r="QM1" s="1" t="inlineStr">
         <is>
           <t>Jun 1984</t>
         </is>
       </c>
-      <c r="QM1" s="1" t="inlineStr">
+      <c r="QN1" s="1" t="inlineStr">
         <is>
           <t>May 1984</t>
         </is>
       </c>
-      <c r="QN1" s="1" t="inlineStr">
+      <c r="QO1" s="1" t="inlineStr">
         <is>
           <t>Apr 1984</t>
         </is>
       </c>
-      <c r="QO1" s="1" t="inlineStr">
+      <c r="QP1" s="1" t="inlineStr">
         <is>
           <t>Mar 1984</t>
         </is>
       </c>
-      <c r="QP1" s="1" t="inlineStr">
+      <c r="QQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 1984</t>
         </is>
       </c>
-      <c r="QQ1" s="1" t="inlineStr">
+      <c r="QR1" s="1" t="inlineStr">
         <is>
           <t>Jan 1984</t>
         </is>
       </c>
-      <c r="QR1" s="1" t="inlineStr">
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>Dec 1983</t>
         </is>
       </c>
-      <c r="QS1" s="1" t="inlineStr">
+      <c r="QT1" s="1" t="inlineStr">
         <is>
           <t>Nov 1983</t>
         </is>
       </c>
-      <c r="QT1" s="1" t="inlineStr">
+      <c r="QU1" s="1" t="inlineStr">
         <is>
           <t>Oct 1983</t>
         </is>
       </c>
-      <c r="QU1" s="1" t="inlineStr">
+      <c r="QV1" s="1" t="inlineStr">
         <is>
           <t>Sep 1983</t>
         </is>
       </c>
-      <c r="QV1" s="1" t="inlineStr">
+      <c r="QW1" s="1" t="inlineStr">
         <is>
           <t>Aug 1983</t>
         </is>
       </c>
-      <c r="QW1" s="1" t="inlineStr">
+      <c r="QX1" s="1" t="inlineStr">
         <is>
           <t>Jul 1983</t>
         </is>
       </c>
-      <c r="QX1" s="1" t="inlineStr">
+      <c r="QY1" s="1" t="inlineStr">
         <is>
           <t>Jun 1983</t>
         </is>
       </c>
-      <c r="QY1" s="1" t="inlineStr">
+      <c r="QZ1" s="1" t="inlineStr">
         <is>
           <t>May 1983</t>
         </is>
       </c>
-      <c r="QZ1" s="1" t="inlineStr">
+      <c r="RA1" s="1" t="inlineStr">
         <is>
           <t>Apr 1983</t>
         </is>
       </c>
-      <c r="RA1" s="1" t="inlineStr">
+      <c r="RB1" s="1" t="inlineStr">
         <is>
           <t>Mar 1983</t>
         </is>
       </c>
-      <c r="RB1" s="1" t="inlineStr">
+      <c r="RC1" s="1" t="inlineStr">
         <is>
           <t>Feb 1983</t>
         </is>
       </c>
-      <c r="RC1" s="1" t="inlineStr">
+      <c r="RD1" s="1" t="inlineStr">
         <is>
           <t>Jan 1983</t>
         </is>
@@ -2731,789 +2736,789 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
         <v>4.3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>3.8</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>3.5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>3.1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>5.3</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>6.4</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>14.1</v>
       </c>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
         <v>7.3</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>7</v>
-      </c>
-      <c r="R2" t="n">
-        <v>6.9</v>
       </c>
       <c r="S2" t="n">
         <v>6.9</v>
       </c>
       <c r="T2" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U2" t="n">
         <v>5.6</v>
-      </c>
-      <c r="U2" t="n">
-        <v>4.8</v>
       </c>
       <c r="V2" t="n">
         <v>4.8</v>
       </c>
       <c r="W2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X2" t="n">
         <v>4.4</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>3.9</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>-1.1</v>
       </c>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
         <v>6.9</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>6.2</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>4.7</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>5.8</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>4.4</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>4.8</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>6.3</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>5</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>5.4</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>8.5</v>
       </c>
-      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="n">
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>5.7</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>5.4</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>5.9</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>5.8</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>6.1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>6</v>
       </c>
       <c r="AT2" t="n">
         <v>6</v>
       </c>
       <c r="AU2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV2" t="n">
         <v>6.8</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>7</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>6</v>
       </c>
-      <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="n">
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="n">
         <v>6.2</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
         <v>6.1</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2" t="n">
         <v>6.2</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>6.6</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BE2" t="n">
         <v>6</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BF2" t="n">
         <v>6.4</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BG2" t="n">
         <v>7.6</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>6.5</v>
       </c>
       <c r="BH2" t="n">
         <v>6.5</v>
       </c>
       <c r="BI2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BJ2" t="n">
         <v>7.6</v>
       </c>
-      <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="n">
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="n">
         <v>6</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BN2" t="n">
         <v>6.2</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>6.1</v>
       </c>
       <c r="BO2" t="n">
         <v>6.1</v>
       </c>
       <c r="BP2" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BQ2" t="n">
         <v>6.3</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>6</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2" t="n">
         <v>6.2</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>6</v>
       </c>
       <c r="BT2" t="n">
         <v>6</v>
       </c>
       <c r="BU2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV2" t="n">
         <v>6.8</v>
       </c>
-      <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="n">
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="n">
         <v>5.9</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BZ2" t="n">
         <v>6.2</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CA2" t="n">
         <v>5.6</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CB2" t="n">
         <v>5.7</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CC2" t="n">
         <v>6.1</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CD2" t="n">
         <v>6</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CE2" t="n">
         <v>6.8</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CF2" t="n">
         <v>6.1</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CG2" t="n">
         <v>5.9</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CH2" t="n">
         <v>5.6</v>
       </c>
-      <c r="CH2" t="inlineStr"/>
       <c r="CI2" t="inlineStr"/>
-      <c r="CJ2" t="n">
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="n">
         <v>7.9</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CL2" t="n">
         <v>7.2</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CM2" t="n">
         <v>7.7</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CN2" t="n">
         <v>8</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CO2" t="n">
         <v>6.9</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CP2" t="n">
         <v>9</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CQ2" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CR2" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CS2" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CT2" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr"/>
-      <c r="CV2" t="n">
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="CX2" t="n">
         <v>10</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CY2" t="n">
         <v>10.3</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CZ2" t="n">
         <v>10.2</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DA2" t="n">
         <v>10.4</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DB2" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DC2" t="n">
         <v>8.9</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DD2" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DE2" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DF2" t="n">
         <v>8.9</v>
       </c>
-      <c r="DF2" t="inlineStr"/>
       <c r="DG2" t="inlineStr"/>
-      <c r="DH2" t="n">
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="n">
         <v>10.3</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DJ2" t="n">
         <v>10.1</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DK2" t="n">
         <v>9.6</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DL2" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DM2" t="n">
         <v>8.9</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DN2" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>9.5</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>9.6</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>11.9</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DS2" t="n">
         <v>21.3</v>
       </c>
-      <c r="DS2" t="inlineStr"/>
-      <c r="DT2" t="n">
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="n">
         <v>12.8</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>12.4</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>13.2</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>13.8</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>13.5</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>14</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>15.1</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>13.3</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>13.4</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>14.8</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>14.9</v>
       </c>
-      <c r="EE2" t="inlineStr"/>
-      <c r="EF2" t="n">
+      <c r="EF2" t="inlineStr"/>
+      <c r="EG2" t="n">
         <v>13.5</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>13.3</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>13.1</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>13.3</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>13.9</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>13.4</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>13.7</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>16.5</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>17.8</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>18.1</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>12.8</v>
       </c>
-      <c r="EQ2" t="inlineStr"/>
-      <c r="ER2" t="n">
+      <c r="ER2" t="inlineStr"/>
+      <c r="ES2" t="n">
         <v>18.5</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>19.2</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>16.1</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>13.9</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>12.3</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>10.8</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>10.7</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EZ2" t="n">
         <v>8.9</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FA2" t="n">
         <v>7.3</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FB2" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FC2" t="n">
         <v>11</v>
       </c>
-      <c r="FC2" t="inlineStr"/>
-      <c r="FD2" t="n">
+      <c r="FD2" t="inlineStr"/>
+      <c r="FE2" t="n">
         <v>5.7</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="FF2" t="n">
         <v>5.4</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="FG2" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="FH2" t="n">
         <v>11.4</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FI2" t="n">
         <v>12.8</v>
       </c>
-      <c r="FI2" t="n">
+      <c r="FJ2" t="n">
         <v>14.7</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>16</v>
       </c>
       <c r="FK2" t="n">
         <v>16</v>
       </c>
       <c r="FL2" t="n">
+        <v>16</v>
+      </c>
+      <c r="FM2" t="n">
         <v>15.7</v>
       </c>
-      <c r="FM2" t="n">
+      <c r="FN2" t="n">
         <v>17.8</v>
       </c>
-      <c r="FN2" t="n">
+      <c r="FO2" t="n">
         <v>15.4</v>
       </c>
-      <c r="FO2" t="inlineStr"/>
-      <c r="FP2" t="n">
+      <c r="FP2" t="inlineStr"/>
+      <c r="FQ2" t="n">
         <v>17.4</v>
       </c>
-      <c r="FQ2" t="n">
+      <c r="FR2" t="n">
         <v>17.3</v>
       </c>
-      <c r="FR2" t="n">
+      <c r="FS2" t="n">
         <v>17.9</v>
       </c>
-      <c r="FS2" t="n">
+      <c r="FT2" t="n">
         <v>18.9</v>
       </c>
-      <c r="FT2" t="n">
+      <c r="FU2" t="n">
         <v>17.5</v>
       </c>
-      <c r="FU2" t="n">
+      <c r="FV2" t="n">
         <v>18</v>
       </c>
-      <c r="FV2" t="n">
+      <c r="FW2" t="n">
         <v>19.4</v>
       </c>
-      <c r="FW2" t="n">
+      <c r="FX2" t="n">
         <v>18.1</v>
       </c>
-      <c r="FX2" t="n">
+      <c r="FY2" t="n">
         <v>17.4</v>
       </c>
-      <c r="FY2" t="n">
+      <c r="FZ2" t="n">
         <v>17.6</v>
       </c>
-      <c r="FZ2" t="n">
+      <c r="GA2" t="n">
         <v>12.6</v>
       </c>
-      <c r="GA2" t="inlineStr"/>
-      <c r="GB2" t="n">
+      <c r="GB2" t="inlineStr"/>
+      <c r="GC2" t="n">
         <v>14.7</v>
       </c>
-      <c r="GC2" t="n">
+      <c r="GD2" t="n">
         <v>14.9</v>
       </c>
-      <c r="GD2" t="n">
+      <c r="GE2" t="n">
         <v>14.7</v>
       </c>
-      <c r="GE2" t="n">
+      <c r="GF2" t="n">
         <v>16.1</v>
       </c>
-      <c r="GF2" t="n">
+      <c r="GG2" t="n">
         <v>15.7</v>
       </c>
-      <c r="GG2" t="n">
+      <c r="GH2" t="n">
         <v>16.7</v>
       </c>
-      <c r="GH2" t="n">
+      <c r="GI2" t="n">
         <v>19.5</v>
       </c>
-      <c r="GI2" t="n">
+      <c r="GJ2" t="n">
         <v>17.9</v>
       </c>
-      <c r="GJ2" t="n">
+      <c r="GK2" t="n">
         <v>16.6</v>
       </c>
-      <c r="GK2" t="n">
+      <c r="GL2" t="n">
         <v>17.8</v>
       </c>
-      <c r="GL2" t="n">
+      <c r="GM2" t="n">
         <v>20.1</v>
       </c>
-      <c r="GM2" t="inlineStr"/>
-      <c r="GN2" t="n">
+      <c r="GN2" t="inlineStr"/>
+      <c r="GO2" t="n">
         <v>16.5</v>
       </c>
-      <c r="GO2" t="n">
+      <c r="GP2" t="n">
         <v>16.6</v>
       </c>
-      <c r="GP2" t="n">
+      <c r="GQ2" t="n">
         <v>16.1</v>
       </c>
-      <c r="GQ2" t="n">
+      <c r="GR2" t="n">
         <v>16.5</v>
       </c>
-      <c r="GR2" t="n">
+      <c r="GS2" t="n">
         <v>16</v>
       </c>
-      <c r="GS2" t="n">
+      <c r="GT2" t="n">
         <v>16.1</v>
       </c>
-      <c r="GT2" t="n">
+      <c r="GU2" t="n">
         <v>16.8</v>
       </c>
-      <c r="GU2" t="n">
+      <c r="GV2" t="n">
         <v>16.6</v>
       </c>
-      <c r="GV2" t="n">
+      <c r="GW2" t="n">
         <v>16</v>
       </c>
-      <c r="GW2" t="n">
+      <c r="GX2" t="n">
         <v>15.1</v>
       </c>
-      <c r="GX2" t="n">
+      <c r="GY2" t="n">
         <v>7.6</v>
       </c>
-      <c r="GY2" t="inlineStr"/>
-      <c r="GZ2" t="n">
+      <c r="GZ2" t="inlineStr"/>
+      <c r="HA2" t="n">
         <v>14.4</v>
       </c>
-      <c r="HA2" t="n">
+      <c r="HB2" t="n">
         <v>14.8</v>
       </c>
-      <c r="HB2" t="n">
+      <c r="HC2" t="n">
         <v>15.7</v>
       </c>
-      <c r="HC2" t="n">
+      <c r="HD2" t="n">
         <v>16.1</v>
       </c>
-      <c r="HD2" t="n">
+      <c r="HE2" t="n">
         <v>15.9</v>
       </c>
-      <c r="HE2" t="n">
+      <c r="HF2" t="n">
         <v>15.5</v>
       </c>
-      <c r="HF2" t="n">
+      <c r="HG2" t="n">
         <v>16.2</v>
       </c>
-      <c r="HG2" t="n">
+      <c r="HH2" t="n">
         <v>17.5</v>
       </c>
-      <c r="HH2" t="n">
+      <c r="HI2" t="n">
         <v>19.1</v>
       </c>
-      <c r="HI2" t="n">
+      <c r="HJ2" t="n">
         <v>19.4</v>
       </c>
-      <c r="HJ2" t="n">
+      <c r="HK2" t="n">
         <v>23.2</v>
       </c>
-      <c r="HK2" t="inlineStr"/>
-      <c r="HL2" t="n">
+      <c r="HL2" t="inlineStr"/>
+      <c r="HM2" t="n">
         <v>18.1</v>
       </c>
-      <c r="HM2" t="n">
+      <c r="HN2" t="n">
         <v>17.9</v>
       </c>
-      <c r="HN2" t="n">
+      <c r="HO2" t="n">
         <v>17.2</v>
       </c>
-      <c r="HO2" t="n">
+      <c r="HP2" t="n">
         <v>16.3</v>
       </c>
-      <c r="HP2" t="n">
+      <c r="HQ2" t="n">
         <v>17.1</v>
       </c>
-      <c r="HQ2" t="n">
+      <c r="HR2" t="n">
         <v>16.5</v>
       </c>
-      <c r="HR2" t="n">
+      <c r="HS2" t="n">
         <v>16.9</v>
       </c>
-      <c r="HS2" t="n">
+      <c r="HT2" t="n">
         <v>13.7</v>
       </c>
-      <c r="HT2" t="n">
+      <c r="HU2" t="n">
         <v>14.9</v>
       </c>
-      <c r="HU2" t="n">
+      <c r="HV2" t="n">
         <v>16.9</v>
       </c>
-      <c r="HV2" t="n">
+      <c r="HW2" t="n">
         <v>19.8</v>
       </c>
-      <c r="HW2" t="inlineStr"/>
-      <c r="HX2" t="n">
+      <c r="HX2" t="inlineStr"/>
+      <c r="HY2" t="n">
         <v>14.9</v>
       </c>
-      <c r="HY2" t="n">
+      <c r="HZ2" t="n">
         <v>14.5</v>
       </c>
-      <c r="HZ2" t="n">
+      <c r="IA2" t="n">
         <v>14.2</v>
       </c>
-      <c r="IA2" t="n">
+      <c r="IB2" t="n">
         <v>13.8</v>
       </c>
-      <c r="IB2" t="n">
+      <c r="IC2" t="n">
         <v>12.7</v>
       </c>
-      <c r="IC2" t="n">
+      <c r="ID2" t="n">
         <v>12.8</v>
       </c>
-      <c r="ID2" t="n">
+      <c r="IE2" t="n">
         <v>12.4</v>
       </c>
-      <c r="IE2" t="n">
+      <c r="IF2" t="n">
         <v>12.9</v>
       </c>
-      <c r="IF2" t="n">
+      <c r="IG2" t="n">
         <v>12.1</v>
       </c>
-      <c r="IG2" t="n">
+      <c r="IH2" t="n">
         <v>10.9</v>
       </c>
-      <c r="IH2" t="n">
+      <c r="II2" t="n">
         <v>2.7</v>
       </c>
-      <c r="II2" t="inlineStr"/>
-      <c r="IJ2" t="n">
+      <c r="IJ2" t="inlineStr"/>
+      <c r="IK2" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="IK2" t="n">
+      <c r="IL2" t="n">
         <v>7.9</v>
       </c>
-      <c r="IL2" t="n">
+      <c r="IM2" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="IM2" t="n">
+      <c r="IN2" t="n">
         <v>9.5</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>8.1</v>
       </c>
       <c r="IO2" t="n">
         <v>8.1</v>
       </c>
       <c r="IP2" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="IQ2" t="n">
         <v>10.1</v>
       </c>
-      <c r="IQ2" t="n">
+      <c r="IR2" t="n">
         <v>10.2</v>
       </c>
-      <c r="IR2" t="n">
+      <c r="IS2" t="n">
         <v>11.5</v>
       </c>
-      <c r="IS2" t="n">
+      <c r="IT2" t="n">
         <v>12.1</v>
       </c>
-      <c r="IT2" t="n">
+      <c r="IU2" t="n">
         <v>19</v>
       </c>
-      <c r="IU2" t="inlineStr"/>
-      <c r="IV2" t="n">
+      <c r="IV2" t="inlineStr"/>
+      <c r="IW2" t="n">
         <v>10.4</v>
       </c>
-      <c r="IW2" t="n">
+      <c r="IX2" t="n">
         <v>10.6</v>
       </c>
-      <c r="IX2" t="n">
+      <c r="IY2" t="n">
         <v>11.4</v>
       </c>
-      <c r="IY2" t="n">
+      <c r="IZ2" t="n">
         <v>12</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>12.8</v>
       </c>
       <c r="JA2" t="n">
         <v>12.8</v>
       </c>
       <c r="JB2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="JC2" t="n">
         <v>12.2</v>
       </c>
-      <c r="JC2" t="n">
+      <c r="JD2" t="n">
         <v>11.5</v>
       </c>
-      <c r="JD2" t="n">
+      <c r="JE2" t="n">
         <v>11.4</v>
       </c>
-      <c r="JE2" t="n">
+      <c r="JF2" t="n">
         <v>11.9</v>
       </c>
-      <c r="JF2" t="n">
+      <c r="JG2" t="n">
         <v>12</v>
       </c>
-      <c r="JG2" t="inlineStr"/>
-      <c r="JH2" t="n">
+      <c r="JH2" t="inlineStr"/>
+      <c r="JI2" t="n">
         <v>7.4</v>
       </c>
-      <c r="JI2" t="n">
+      <c r="JJ2" t="n">
         <v>7.6</v>
       </c>
-      <c r="JJ2" t="n">
+      <c r="JK2" t="n">
         <v>7</v>
       </c>
-      <c r="JK2" t="n">
+      <c r="JL2" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="JL2" t="n">
+      <c r="JM2" t="n">
         <v>9.5</v>
       </c>
-      <c r="JM2" t="n">
+      <c r="JN2" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="JN2" t="n">
+      <c r="JO2" t="n">
         <v>9.1</v>
       </c>
-      <c r="JO2" t="n">
+      <c r="JP2" t="n">
         <v>8.9</v>
       </c>
-      <c r="JP2" t="n">
+      <c r="JQ2" t="n">
         <v>9.1</v>
       </c>
-      <c r="JQ2" t="n">
+      <c r="JR2" t="n">
         <v>9</v>
       </c>
-      <c r="JR2" t="n">
+      <c r="JS2" t="n">
         <v>2.1</v>
       </c>
-      <c r="JS2" t="inlineStr"/>
-      <c r="JT2" t="n">
+      <c r="JT2" t="inlineStr"/>
+      <c r="JU2" t="n">
         <v>11.5</v>
       </c>
-      <c r="JU2" t="n">
+      <c r="JV2" t="n">
         <v>11</v>
       </c>
-      <c r="JV2" t="n">
+      <c r="JW2" t="n">
         <v>10.6</v>
       </c>
-      <c r="JW2" t="n">
+      <c r="JX2" t="n">
         <v>10.2</v>
       </c>
-      <c r="JX2" t="n">
+      <c r="JY2" t="n">
         <v>7.9</v>
       </c>
-      <c r="JY2" t="n">
+      <c r="JZ2" t="n">
         <v>7.6</v>
       </c>
-      <c r="JZ2" t="inlineStr"/>
       <c r="KA2" t="inlineStr"/>
       <c r="KB2" t="inlineStr"/>
       <c r="KC2" t="inlineStr"/>
@@ -3699,6 +3704,7 @@
       <c r="RA2" t="inlineStr"/>
       <c r="RB2" t="inlineStr"/>
       <c r="RC2" t="inlineStr"/>
+      <c r="RD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3706,83 +3712,81 @@
           <t>Value-added of Industry, Accumulated Growth Rate(%)</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
         <v>7.5</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
         <v>9.6</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>10.1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>10.9</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>11.8</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>13.1</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>14.4</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>15.9</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>17.8</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>20.3</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>24.5</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>35.1</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>2.3</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1.8</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>1.2</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.4</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-0.4</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>-1.3</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-2.8</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>-4.9</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>-8.4</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>-13.5</v>
       </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="n">
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
         <v>5.7</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5.6</v>
       </c>
       <c r="AD3" t="n">
         <v>5.6</v>
@@ -3794,66 +3798,66 @@
         <v>5.6</v>
       </c>
       <c r="AG3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AH3" t="n">
         <v>5.8</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6</v>
       </c>
       <c r="AI3" t="n">
         <v>6</v>
       </c>
       <c r="AJ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK3" t="n">
         <v>6.2</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>6.5</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>5.3</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="n">
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>6.2</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>6.3</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>6.4</v>
       </c>
       <c r="AQ3" t="n">
         <v>6.4</v>
       </c>
       <c r="AR3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AS3" t="n">
         <v>6.5</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>6.6</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>6.7</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>6.9</v>
       </c>
       <c r="AV3" t="n">
         <v>6.9</v>
       </c>
       <c r="AW3" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AX3" t="n">
         <v>6.8</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>7.2</v>
       </c>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="n">
-        <v>6.6</v>
-      </c>
+      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="n">
         <v>6.6</v>
       </c>
       <c r="BB3" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="BC3" t="n">
         <v>6.7</v>
@@ -3862,27 +3866,27 @@
         <v>6.7</v>
       </c>
       <c r="BE3" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BF3" t="n">
         <v>6.8</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BG3" t="n">
         <v>6.9</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>6.7</v>
       </c>
       <c r="BH3" t="n">
         <v>6.7</v>
       </c>
       <c r="BI3" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BJ3" t="n">
         <v>6.8</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BK3" t="n">
         <v>6.3</v>
       </c>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="n">
-        <v>6</v>
-      </c>
+      <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="n">
         <v>6</v>
       </c>
@@ -3902,21 +3906,21 @@
         <v>6</v>
       </c>
       <c r="BS3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BT3" t="n">
         <v>5.9</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>5.8</v>
       </c>
       <c r="BU3" t="n">
         <v>5.8</v>
       </c>
       <c r="BV3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BW3" t="n">
         <v>5.4</v>
       </c>
-      <c r="BW3" t="inlineStr"/>
-      <c r="BX3" t="n">
-        <v>6.1</v>
-      </c>
+      <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="n">
         <v>6.1</v>
       </c>
@@ -3924,10 +3928,10 @@
         <v>6.1</v>
       </c>
       <c r="CA3" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="CB3" t="n">
         <v>6.2</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>6.3</v>
       </c>
       <c r="CC3" t="n">
         <v>6.3</v>
@@ -3936,41 +3940,41 @@
         <v>6.3</v>
       </c>
       <c r="CE3" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="CF3" t="n">
         <v>6.2</v>
       </c>
       <c r="CG3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="CH3" t="n">
         <v>6.4</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CI3" t="n">
         <v>6.8</v>
       </c>
-      <c r="CI3" t="inlineStr"/>
-      <c r="CJ3" t="n">
-        <v>8.300000000000001</v>
-      </c>
+      <c r="CJ3" t="inlineStr"/>
       <c r="CK3" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="CL3" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="CM3" t="n">
         <v>8.4</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>8.5</v>
       </c>
       <c r="CN3" t="n">
         <v>8.5</v>
       </c>
       <c r="CO3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="CP3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="CQ3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="CR3" t="n">
         <v>8.699999999999999</v>
@@ -3979,12 +3983,12 @@
         <v>8.699999999999999</v>
       </c>
       <c r="CT3" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="CU3" t="n">
         <v>8.6</v>
       </c>
-      <c r="CU3" t="inlineStr"/>
-      <c r="CV3" t="n">
-        <v>9.699999999999999</v>
-      </c>
+      <c r="CV3" t="inlineStr"/>
       <c r="CW3" t="n">
         <v>9.699999999999999</v>
       </c>
@@ -3992,33 +3996,33 @@
         <v>9.699999999999999</v>
       </c>
       <c r="CY3" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="CZ3" t="n">
         <v>9.6</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="DA3" t="n">
         <v>9.5</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DB3" t="n">
         <v>9.4</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DC3" t="n">
         <v>9.300000000000001</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>9.4</v>
       </c>
       <c r="DD3" t="n">
         <v>9.4</v>
       </c>
       <c r="DE3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="DF3" t="n">
         <v>9.5</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DG3" t="n">
         <v>9.9</v>
       </c>
-      <c r="DG3" t="inlineStr"/>
-      <c r="DH3" t="n">
-        <v>10</v>
-      </c>
+      <c r="DH3" t="inlineStr"/>
       <c r="DI3" t="n">
         <v>10</v>
       </c>
@@ -4029,149 +4033,149 @@
         <v>10</v>
       </c>
       <c r="DL3" t="n">
+        <v>10</v>
+      </c>
+      <c r="DM3" t="n">
         <v>10.1</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DN3" t="n">
         <v>10.3</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DO3" t="n">
         <v>10.5</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DP3" t="n">
         <v>10.7</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>11</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>11.6</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>11.4</v>
       </c>
-      <c r="DS3" t="inlineStr"/>
-      <c r="DT3" t="n">
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="n">
         <v>13.9</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>14</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>14.1</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>14.2</v>
       </c>
       <c r="DX3" t="n">
         <v>14.2</v>
       </c>
       <c r="DY3" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="DZ3" t="n">
         <v>14.3</v>
       </c>
       <c r="EA3" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="EB3" t="n">
         <v>14</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>14.2</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>14.4</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>14.1</v>
       </c>
-      <c r="EE3" t="inlineStr"/>
-      <c r="EF3" t="n">
+      <c r="EF3" t="inlineStr"/>
+      <c r="EG3" t="n">
         <v>15.7</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>15.8</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>16.1</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>16.3</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>16.6</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>17</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>17.6</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>18.5</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>19.1</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>19.6</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>20.7</v>
       </c>
-      <c r="EQ3" t="inlineStr"/>
-      <c r="ER3" t="n">
+      <c r="ER3" t="inlineStr"/>
+      <c r="ES3" t="n">
         <v>11</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>10.3</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>9.4</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>8.1</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>7.5</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EY3" t="n">
         <v>7</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EZ3" t="n">
         <v>6.3</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="FA3" t="n">
         <v>5.5</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="FB3" t="n">
         <v>5.1</v>
       </c>
-      <c r="FB3" t="n">
+      <c r="FC3" t="n">
         <v>3.8</v>
       </c>
-      <c r="FC3" t="inlineStr"/>
-      <c r="FD3" t="n">
+      <c r="FD3" t="inlineStr"/>
+      <c r="FE3" t="n">
         <v>12.9</v>
       </c>
-      <c r="FE3" t="n">
+      <c r="FF3" t="n">
         <v>13.7</v>
       </c>
-      <c r="FF3" t="n">
+      <c r="FG3" t="n">
         <v>14.4</v>
       </c>
-      <c r="FG3" t="n">
+      <c r="FH3" t="n">
         <v>15.2</v>
       </c>
-      <c r="FH3" t="n">
+      <c r="FI3" t="n">
         <v>15.7</v>
       </c>
-      <c r="FI3" t="n">
+      <c r="FJ3" t="n">
         <v>16.1</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>16.3</v>
       </c>
       <c r="FK3" t="n">
         <v>16.3</v>
@@ -4180,15 +4184,15 @@
         <v>16.3</v>
       </c>
       <c r="FM3" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="FN3" t="n">
         <v>16.4</v>
       </c>
-      <c r="FN3" t="n">
+      <c r="FO3" t="n">
         <v>15.4</v>
       </c>
-      <c r="FO3" t="inlineStr"/>
-      <c r="FP3" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="FP3" t="inlineStr"/>
       <c r="FQ3" t="n">
         <v>18.5</v>
       </c>
@@ -4199,69 +4203,69 @@
         <v>18.5</v>
       </c>
       <c r="FT3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="FU3" t="n">
         <v>18.4</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>18.5</v>
       </c>
       <c r="FV3" t="n">
         <v>18.5</v>
       </c>
       <c r="FW3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="FX3" t="n">
         <v>18.1</v>
       </c>
-      <c r="FX3" t="n">
+      <c r="FY3" t="n">
         <v>18</v>
       </c>
-      <c r="FY3" t="n">
+      <c r="FZ3" t="n">
         <v>18.3</v>
       </c>
-      <c r="FZ3" t="n">
+      <c r="GA3" t="n">
         <v>18.5</v>
       </c>
-      <c r="GA3" t="inlineStr"/>
-      <c r="GB3" t="n">
+      <c r="GB3" t="inlineStr"/>
+      <c r="GC3" t="n">
         <v>16.6</v>
       </c>
-      <c r="GC3" t="n">
+      <c r="GD3" t="n">
         <v>16.8</v>
       </c>
-      <c r="GD3" t="n">
+      <c r="GE3" t="n">
         <v>16.9</v>
       </c>
-      <c r="GE3" t="n">
+      <c r="GF3" t="n">
         <v>17.2</v>
       </c>
-      <c r="GF3" t="n">
+      <c r="GG3" t="n">
         <v>17.3</v>
       </c>
-      <c r="GG3" t="n">
+      <c r="GH3" t="n">
         <v>17.6</v>
       </c>
-      <c r="GH3" t="n">
+      <c r="GI3" t="n">
         <v>17.7</v>
       </c>
-      <c r="GI3" t="n">
+      <c r="GJ3" t="n">
         <v>17</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>16.7</v>
       </c>
       <c r="GK3" t="n">
         <v>16.7</v>
       </c>
       <c r="GL3" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="GM3" t="n">
         <v>16.2</v>
       </c>
-      <c r="GM3" t="inlineStr"/>
-      <c r="GN3" t="n">
-        <v>16.4</v>
-      </c>
+      <c r="GN3" t="inlineStr"/>
       <c r="GO3" t="n">
         <v>16.4</v>
       </c>
       <c r="GP3" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="GQ3" t="n">
         <v>16.3</v>
@@ -4273,165 +4277,165 @@
         <v>16.3</v>
       </c>
       <c r="GT3" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="GU3" t="n">
         <v>16.4</v>
       </c>
-      <c r="GU3" t="n">
+      <c r="GV3" t="n">
         <v>16.3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>16.2</v>
       </c>
       <c r="GW3" t="n">
         <v>16.2</v>
       </c>
       <c r="GX3" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="GY3" t="n">
         <v>16.9</v>
       </c>
-      <c r="GY3" t="inlineStr"/>
-      <c r="GZ3" t="n">
+      <c r="GZ3" t="inlineStr"/>
+      <c r="HA3" t="n">
         <v>16.7</v>
       </c>
-      <c r="HA3" t="n">
+      <c r="HB3" t="n">
         <v>16.8</v>
       </c>
-      <c r="HB3" t="n">
+      <c r="HC3" t="n">
         <v>16.9</v>
       </c>
-      <c r="HC3" t="n">
+      <c r="HD3" t="n">
         <v>17</v>
       </c>
-      <c r="HD3" t="n">
+      <c r="HE3" t="n">
         <v>17.1</v>
       </c>
-      <c r="HE3" t="n">
+      <c r="HF3" t="n">
         <v>17.3</v>
       </c>
-      <c r="HF3" t="n">
+      <c r="HG3" t="n">
         <v>17.7</v>
       </c>
-      <c r="HG3" t="n">
+      <c r="HH3" t="n">
         <v>18.1</v>
       </c>
-      <c r="HH3" t="n">
+      <c r="HI3" t="n">
         <v>18.2</v>
       </c>
-      <c r="HI3" t="n">
+      <c r="HJ3" t="n">
         <v>17.7</v>
       </c>
-      <c r="HJ3" t="n">
+      <c r="HK3" t="n">
         <v>16.6</v>
       </c>
-      <c r="HK3" t="inlineStr"/>
-      <c r="HL3" t="n">
+      <c r="HL3" t="inlineStr"/>
+      <c r="HM3" t="n">
         <v>17</v>
       </c>
-      <c r="HM3" t="n">
+      <c r="HN3" t="n">
         <v>16.8</v>
       </c>
-      <c r="HN3" t="n">
+      <c r="HO3" t="n">
         <v>16.7</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>16.5</v>
       </c>
       <c r="HP3" t="n">
         <v>16.5</v>
       </c>
       <c r="HQ3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="HR3" t="n">
         <v>16.4</v>
       </c>
-      <c r="HR3" t="n">
+      <c r="HS3" t="n">
         <v>16.2</v>
       </c>
-      <c r="HS3" t="n">
+      <c r="HT3" t="n">
         <v>15.9</v>
       </c>
-      <c r="HT3" t="n">
+      <c r="HU3" t="n">
         <v>16.4</v>
       </c>
-      <c r="HU3" t="n">
+      <c r="HV3" t="n">
         <v>17.2</v>
       </c>
-      <c r="HV3" t="n">
+      <c r="HW3" t="n">
         <v>17.5</v>
       </c>
-      <c r="HW3" t="inlineStr"/>
-      <c r="HX3" t="n">
+      <c r="HX3" t="inlineStr"/>
+      <c r="HY3" t="n">
         <v>12.6</v>
       </c>
-      <c r="HY3" t="n">
+      <c r="HZ3" t="n">
         <v>12.4</v>
       </c>
-      <c r="HZ3" t="n">
+      <c r="IA3" t="n">
         <v>12.3</v>
       </c>
-      <c r="IA3" t="n">
+      <c r="IB3" t="n">
         <v>12.2</v>
       </c>
-      <c r="IB3" t="n">
+      <c r="IC3" t="n">
         <v>12</v>
       </c>
-      <c r="IC3" t="n">
+      <c r="ID3" t="n">
         <v>11.8</v>
       </c>
-      <c r="ID3" t="n">
+      <c r="IE3" t="n">
         <v>11.7</v>
       </c>
-      <c r="IE3" t="n">
+      <c r="IF3" t="n">
         <v>11.6</v>
       </c>
-      <c r="IF3" t="n">
+      <c r="IG3" t="n">
         <v>11.2</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>10.9</v>
       </c>
       <c r="IH3" t="n">
         <v>10.9</v>
       </c>
-      <c r="II3" t="inlineStr"/>
-      <c r="IJ3" t="n">
+      <c r="II3" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="IJ3" t="inlineStr"/>
+      <c r="IK3" t="n">
         <v>9.9</v>
       </c>
-      <c r="IK3" t="n">
+      <c r="IL3" t="n">
         <v>10</v>
       </c>
-      <c r="IL3" t="n">
+      <c r="IM3" t="n">
         <v>10.2</v>
       </c>
-      <c r="IM3" t="n">
+      <c r="IN3" t="n">
         <v>10.3</v>
       </c>
-      <c r="IN3" t="n">
+      <c r="IO3" t="n">
         <v>10.4</v>
       </c>
-      <c r="IO3" t="n">
+      <c r="IP3" t="n">
         <v>10.7</v>
       </c>
-      <c r="IP3" t="n">
+      <c r="IQ3" t="n">
         <v>11</v>
       </c>
-      <c r="IQ3" t="n">
+      <c r="IR3" t="n">
         <v>11.1</v>
       </c>
-      <c r="IR3" t="n">
+      <c r="IS3" t="n">
         <v>11.3</v>
       </c>
-      <c r="IS3" t="n">
+      <c r="IT3" t="n">
         <v>11.2</v>
       </c>
-      <c r="IT3" t="n">
+      <c r="IU3" t="n">
         <v>10.2</v>
       </c>
-      <c r="IU3" t="inlineStr"/>
-      <c r="IV3" t="n">
+      <c r="IV3" t="inlineStr"/>
+      <c r="IW3" t="n">
         <v>11.4</v>
       </c>
-      <c r="IW3" t="n">
+      <c r="IX3" t="n">
         <v>11.5</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>11.6</v>
       </c>
       <c r="IY3" t="n">
         <v>11.6</v>
@@ -4440,38 +4444,38 @@
         <v>11.6</v>
       </c>
       <c r="JA3" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="JB3" t="n">
         <v>11.4</v>
       </c>
-      <c r="JB3" t="n">
+      <c r="JC3" t="n">
         <v>11.2</v>
       </c>
-      <c r="JC3" t="n">
+      <c r="JD3" t="n">
         <v>11</v>
       </c>
-      <c r="JD3" t="n">
+      <c r="JE3" t="n">
         <v>10.9</v>
       </c>
-      <c r="JE3" t="n">
+      <c r="JF3" t="n">
         <v>10.7</v>
       </c>
-      <c r="JF3" t="n">
+      <c r="JG3" t="n">
         <v>10.4</v>
       </c>
-      <c r="JG3" t="inlineStr"/>
-      <c r="JH3" t="n">
+      <c r="JH3" t="inlineStr"/>
+      <c r="JI3" t="n">
         <v>8.9</v>
       </c>
-      <c r="JI3" t="n">
+      <c r="JJ3" t="n">
         <v>9</v>
       </c>
-      <c r="JJ3" t="n">
+      <c r="JK3" t="n">
         <v>9.1</v>
       </c>
-      <c r="JK3" t="n">
+      <c r="JL3" t="n">
         <v>9.300000000000001</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>9.4</v>
       </c>
       <c r="JM3" t="n">
         <v>9.4</v>
@@ -4480,37 +4484,39 @@
         <v>9.4</v>
       </c>
       <c r="JO3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="JP3" t="n">
         <v>9.5</v>
       </c>
-      <c r="JP3" t="n">
+      <c r="JQ3" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="JQ3" t="n">
+      <c r="JR3" t="n">
         <v>10.1</v>
       </c>
-      <c r="JR3" t="n">
+      <c r="JS3" t="n">
         <v>10.6</v>
       </c>
-      <c r="JS3" t="inlineStr"/>
-      <c r="JT3" t="n">
+      <c r="JT3" t="inlineStr"/>
+      <c r="JU3" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="JU3" t="n">
+      <c r="JV3" t="n">
         <v>8.5</v>
       </c>
-      <c r="JV3" t="n">
+      <c r="JW3" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="JW3" t="n">
+      <c r="JX3" t="n">
         <v>8</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>7.8</v>
       </c>
       <c r="JY3" t="n">
         <v>7.8</v>
       </c>
-      <c r="JZ3" t="inlineStr"/>
+      <c r="JZ3" t="n">
+        <v>7.8</v>
+      </c>
       <c r="KA3" t="inlineStr"/>
       <c r="KB3" t="inlineStr"/>
       <c r="KC3" t="inlineStr"/>
@@ -4696,6 +4702,7 @@
       <c r="RA3" t="inlineStr"/>
       <c r="RB3" t="inlineStr"/>
       <c r="RC3" t="inlineStr"/>
+      <c r="RD3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
